--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf7</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf7</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>23.78806266666667</v>
+        <v>0.2479975</v>
       </c>
       <c r="H2">
-        <v>71.364188</v>
+        <v>0.495995</v>
       </c>
       <c r="I2">
-        <v>0.9523565551414847</v>
+        <v>0.009873286175486388</v>
       </c>
       <c r="J2">
-        <v>0.9638182834836496</v>
+        <v>0.006700450878695315</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>2561.096236654722</v>
+        <v>25.9109660381125</v>
       </c>
       <c r="R2">
-        <v>15366.57741992834</v>
+        <v>103.64386415245</v>
       </c>
       <c r="S2">
-        <v>0.2620717175145778</v>
+        <v>0.003118923303156473</v>
       </c>
       <c r="T2">
-        <v>0.1982701131263652</v>
+        <v>0.001628285165177916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>23.78806266666667</v>
+        <v>0.2479975</v>
       </c>
       <c r="H3">
-        <v>71.364188</v>
+        <v>0.495995</v>
       </c>
       <c r="I3">
-        <v>0.9523565551414847</v>
+        <v>0.009873286175486388</v>
       </c>
       <c r="J3">
-        <v>0.9638182834836496</v>
+        <v>0.006700450878695315</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>652.0718876069129</v>
+        <v>6.798039849348334</v>
       </c>
       <c r="R3">
-        <v>5868.646988462217</v>
+        <v>40.78823909609</v>
       </c>
       <c r="S3">
-        <v>0.0667251769310046</v>
+        <v>0.0008182853881531062</v>
       </c>
       <c r="T3">
-        <v>0.07572130543474871</v>
+        <v>0.000640799001243368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>23.78806266666667</v>
+        <v>0.2479975</v>
       </c>
       <c r="H4">
-        <v>71.364188</v>
+        <v>0.495995</v>
       </c>
       <c r="I4">
-        <v>0.9523565551414847</v>
+        <v>0.009873286175486388</v>
       </c>
       <c r="J4">
-        <v>0.9638182834836496</v>
+        <v>0.006700450878695315</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>1957.850973188759</v>
+        <v>13.95478725065667</v>
       </c>
       <c r="R4">
-        <v>17620.65875869883</v>
+        <v>83.72872350394002</v>
       </c>
       <c r="S4">
-        <v>0.2003428687441156</v>
+        <v>0.001679748685658594</v>
       </c>
       <c r="T4">
-        <v>0.2273538153601798</v>
+        <v>0.001315410608197845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>23.78806266666667</v>
+        <v>0.2479975</v>
       </c>
       <c r="H5">
-        <v>71.364188</v>
+        <v>0.495995</v>
       </c>
       <c r="I5">
-        <v>0.9523565551414847</v>
+        <v>0.009873286175486388</v>
       </c>
       <c r="J5">
-        <v>0.9638182834836496</v>
+        <v>0.006700450878695315</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>459.939230046198</v>
+        <v>6.911780596090001</v>
       </c>
       <c r="R5">
-        <v>2759.635380277188</v>
+        <v>27.64712238436</v>
       </c>
       <c r="S5">
-        <v>0.04706463671509035</v>
+        <v>0.0008319764510416609</v>
       </c>
       <c r="T5">
-        <v>0.03560670695124964</v>
+        <v>0.0004343469785350294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>23.78806266666667</v>
+        <v>0.2479975</v>
       </c>
       <c r="H6">
-        <v>71.364188</v>
+        <v>0.495995</v>
       </c>
       <c r="I6">
-        <v>0.9523565551414847</v>
+        <v>0.009873286175486388</v>
       </c>
       <c r="J6">
-        <v>0.9638182834836496</v>
+        <v>0.006700450878695315</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>1980.514471051567</v>
+        <v>4.755695869700834</v>
       </c>
       <c r="R6">
-        <v>17824.6302394641</v>
+        <v>28.534175218205</v>
       </c>
       <c r="S6">
-        <v>0.20266197793056</v>
+        <v>0.0005724468415773284</v>
       </c>
       <c r="T6">
-        <v>0.2299855951938229</v>
+        <v>0.0004482829214091228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>23.78806266666667</v>
+        <v>0.2479975</v>
       </c>
       <c r="H7">
-        <v>71.364188</v>
+        <v>0.495995</v>
       </c>
       <c r="I7">
-        <v>0.9523565551414847</v>
+        <v>0.009873286175486388</v>
       </c>
       <c r="J7">
-        <v>0.9638182834836496</v>
+        <v>0.006700450878695315</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>1695.433007457551</v>
+        <v>23.69267196550667</v>
       </c>
       <c r="R7">
-        <v>15258.89706711796</v>
+        <v>142.15603179304</v>
       </c>
       <c r="S7">
-        <v>0.1734901773061363</v>
+        <v>0.002851905505899224</v>
       </c>
       <c r="T7">
-        <v>0.1968807474172833</v>
+        <v>0.002233326204132034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.891119</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H8">
-        <v>1.782238</v>
+        <v>71.364188</v>
       </c>
       <c r="I8">
-        <v>0.03567600409302456</v>
+        <v>0.9470512818411631</v>
       </c>
       <c r="J8">
-        <v>0.024070246128483</v>
+        <v>0.9640666462201789</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>95.94062153323399</v>
+        <v>2485.394747400646</v>
       </c>
       <c r="R8">
-        <v>383.762486132936</v>
+        <v>14912.36848440388</v>
       </c>
       <c r="S8">
-        <v>0.009817406743556292</v>
+        <v>0.2991689149608894</v>
       </c>
       <c r="T8">
-        <v>0.004951566601978388</v>
+        <v>0.2342790726627645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.891119</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H9">
-        <v>1.782238</v>
+        <v>71.364188</v>
       </c>
       <c r="I9">
-        <v>0.03567600409302456</v>
+        <v>0.9470512818411631</v>
       </c>
       <c r="J9">
-        <v>0.024070246128483</v>
+        <v>0.9640666462201789</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
-        <v>24.42711104955267</v>
+        <v>652.0718876069129</v>
       </c>
       <c r="R9">
-        <v>146.562666297316</v>
+        <v>5868.646988462217</v>
       </c>
       <c r="S9">
-        <v>0.002499576101457774</v>
+        <v>0.07849040451054445</v>
       </c>
       <c r="T9">
-        <v>0.001891051965103501</v>
+        <v>0.09219871247682726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.891119</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H10">
-        <v>1.782238</v>
+        <v>71.364188</v>
       </c>
       <c r="I10">
-        <v>0.03567600409302456</v>
+        <v>0.9470512818411631</v>
       </c>
       <c r="J10">
-        <v>0.024070246128483</v>
+        <v>0.9640666462201789</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>73.342593124313</v>
+        <v>1338.551209663895</v>
       </c>
       <c r="R10">
-        <v>440.055558745878</v>
+        <v>12046.96088697506</v>
       </c>
       <c r="S10">
-        <v>0.007504996911856725</v>
+        <v>0.1611224588905033</v>
       </c>
       <c r="T10">
-        <v>0.005677898404447566</v>
+        <v>0.1892624117997668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.891119</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H11">
-        <v>1.782238</v>
+        <v>71.364188</v>
       </c>
       <c r="I11">
-        <v>0.03567600409302456</v>
+        <v>0.9470512818411631</v>
       </c>
       <c r="J11">
-        <v>0.024070246128483</v>
+        <v>0.9640666462201789</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>17.2296749206845</v>
+        <v>662.9819653748107</v>
       </c>
       <c r="R11">
-        <v>68.91869968273799</v>
+        <v>3977.891792248864</v>
       </c>
       <c r="S11">
-        <v>0.001763077245617141</v>
+        <v>0.07980365912789428</v>
       </c>
       <c r="T11">
-        <v>0.0008892362957087279</v>
+        <v>0.06249421754938216</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.891119</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H12">
-        <v>1.782238</v>
+        <v>71.364188</v>
       </c>
       <c r="I12">
-        <v>0.03567600409302456</v>
+        <v>0.9470512818411631</v>
       </c>
       <c r="J12">
-        <v>0.024070246128483</v>
+        <v>0.9640666462201789</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>74.19158506766733</v>
+        <v>456.1690798175436</v>
       </c>
       <c r="R12">
-        <v>445.149510406004</v>
+        <v>4105.521718357892</v>
       </c>
       <c r="S12">
-        <v>0.007591872513626977</v>
+        <v>0.05490942989657917</v>
       </c>
       <c r="T12">
-        <v>0.005743624059830242</v>
+        <v>0.06449933301873984</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.891119</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H13">
-        <v>1.782238</v>
+        <v>71.364188</v>
       </c>
       <c r="I13">
-        <v>0.03567600409302456</v>
+        <v>0.9470512818411631</v>
       </c>
       <c r="J13">
-        <v>0.024070246128483</v>
+        <v>0.9640666462201789</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>63.51221565805101</v>
+        <v>2272.614705616988</v>
       </c>
       <c r="R13">
-        <v>381.073293948306</v>
+        <v>20453.5323505529</v>
       </c>
       <c r="S13">
-        <v>0.006499074576909649</v>
+        <v>0.2735564144547523</v>
       </c>
       <c r="T13">
-        <v>0.004916868801414571</v>
+        <v>0.3213328987126984</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2197513333333333</v>
+        <v>1.08197</v>
       </c>
       <c r="H14">
-        <v>0.659254</v>
+        <v>2.16394</v>
       </c>
       <c r="I14">
-        <v>0.008797758175336408</v>
+        <v>0.04307543198335067</v>
       </c>
       <c r="J14">
-        <v>0.008903640277666018</v>
+        <v>0.0292329029011259</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>23.65910669928133</v>
+        <v>113.04504248735</v>
       </c>
       <c r="R14">
-        <v>141.954640195688</v>
+        <v>452.1801699494</v>
       </c>
       <c r="S14">
-        <v>0.002420987793742647</v>
+        <v>0.01360732042184381</v>
       </c>
       <c r="T14">
-        <v>0.001831596054298393</v>
+        <v>0.00710392524185748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2197513333333333</v>
+        <v>1.08197</v>
       </c>
       <c r="H15">
-        <v>0.659254</v>
+        <v>2.16394</v>
       </c>
       <c r="I15">
-        <v>0.008797758175336408</v>
+        <v>0.04307543198335067</v>
       </c>
       <c r="J15">
-        <v>0.008903640277666018</v>
+        <v>0.0292329029011259</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>6.023763630469778</v>
+        <v>29.65866662284667</v>
       </c>
       <c r="R15">
-        <v>54.21387267422801</v>
+        <v>177.95199973708</v>
       </c>
       <c r="S15">
-        <v>0.0006163993597527168</v>
+        <v>0.003570036961743632</v>
       </c>
       <c r="T15">
-        <v>0.0006995045399112483</v>
+        <v>0.002795694696016237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2197513333333333</v>
+        <v>1.08197</v>
       </c>
       <c r="H16">
-        <v>0.659254</v>
+        <v>2.16394</v>
       </c>
       <c r="I16">
-        <v>0.008797758175336408</v>
+        <v>0.04307543198335067</v>
       </c>
       <c r="J16">
-        <v>0.008903640277666018</v>
+        <v>0.0292329029011259</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>18.08639769681933</v>
+        <v>60.88231196521334</v>
       </c>
       <c r="R16">
-        <v>162.777579271374</v>
+        <v>365.2938717912801</v>
       </c>
       <c r="S16">
-        <v>0.001850743927627022</v>
+        <v>0.007328451639319062</v>
       </c>
       <c r="T16">
-        <v>0.002100267884943355</v>
+        <v>0.005738907915409721</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2197513333333333</v>
+        <v>1.08197</v>
       </c>
       <c r="H17">
-        <v>0.659254</v>
+        <v>2.16394</v>
       </c>
       <c r="I17">
-        <v>0.008797758175336408</v>
+        <v>0.04307543198335067</v>
       </c>
       <c r="J17">
-        <v>0.008903640277666018</v>
+        <v>0.0292329029011259</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>4.248864670959</v>
+        <v>30.15489773708001</v>
       </c>
       <c r="R17">
-        <v>25.493188025754</v>
+        <v>120.61959094832</v>
       </c>
       <c r="S17">
-        <v>0.0004347775947926456</v>
+        <v>0.003629768690142223</v>
       </c>
       <c r="T17">
-        <v>0.0003289305832841414</v>
+        <v>0.001894980394421499</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2197513333333333</v>
+        <v>1.08197</v>
       </c>
       <c r="H18">
-        <v>0.659254</v>
+        <v>2.16394</v>
       </c>
       <c r="I18">
-        <v>0.008797758175336408</v>
+        <v>0.04307543198335067</v>
       </c>
       <c r="J18">
-        <v>0.008903640277666018</v>
+        <v>0.0292329029011259</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>18.29576043237022</v>
+        <v>20.74827472107667</v>
       </c>
       <c r="R18">
-        <v>164.661843891332</v>
+        <v>124.48964832646</v>
       </c>
       <c r="S18">
-        <v>0.001872167586333827</v>
+        <v>0.002497486100389811</v>
       </c>
       <c r="T18">
-        <v>0.002124579958422683</v>
+        <v>0.001955780491646201</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2197513333333333</v>
+        <v>1.08197</v>
       </c>
       <c r="H19">
-        <v>0.659254</v>
+        <v>2.16394</v>
       </c>
       <c r="I19">
-        <v>0.008797758175336408</v>
+        <v>0.04307543198335067</v>
       </c>
       <c r="J19">
-        <v>0.008903640277666018</v>
+        <v>0.0292329029011259</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>15.66221130265533</v>
+        <v>103.3670109034133</v>
       </c>
       <c r="R19">
-        <v>140.959901723898</v>
+        <v>620.20206542048</v>
       </c>
       <c r="S19">
-        <v>0.00160268191308755</v>
+        <v>0.01244236816991213</v>
       </c>
       <c r="T19">
-        <v>0.001818761256806196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.07917266666666666</v>
-      </c>
-      <c r="H20">
-        <v>0.237518</v>
-      </c>
-      <c r="I20">
-        <v>0.003169682590154254</v>
-      </c>
-      <c r="J20">
-        <v>0.003207830110201345</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>107.663086</v>
-      </c>
-      <c r="N20">
-        <v>215.326172</v>
-      </c>
-      <c r="O20">
-        <v>0.2751823527645522</v>
-      </c>
-      <c r="P20">
-        <v>0.2057131686791961</v>
-      </c>
-      <c r="Q20">
-        <v>8.523973620182664</v>
-      </c>
-      <c r="R20">
-        <v>51.143841721096</v>
-      </c>
-      <c r="S20">
-        <v>0.0008722407126754876</v>
-      </c>
-      <c r="T20">
-        <v>0.0006598928965540533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.07917266666666666</v>
-      </c>
-      <c r="H21">
-        <v>0.237518</v>
-      </c>
-      <c r="I21">
-        <v>0.003169682590154254</v>
-      </c>
-      <c r="J21">
-        <v>0.003207830110201345</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>27.41172733333334</v>
-      </c>
-      <c r="N21">
-        <v>82.23518200000001</v>
-      </c>
-      <c r="O21">
-        <v>0.07006323059444027</v>
-      </c>
-      <c r="P21">
-        <v>0.07856388152449202</v>
-      </c>
-      <c r="Q21">
-        <v>2.170259550919555</v>
-      </c>
-      <c r="R21">
-        <v>19.532335958276</v>
-      </c>
-      <c r="S21">
-        <v>0.0002220782022251602</v>
-      </c>
-      <c r="T21">
-        <v>0.0002520195847285566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.07917266666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.237518</v>
-      </c>
-      <c r="I22">
-        <v>0.003169682590154254</v>
-      </c>
-      <c r="J22">
-        <v>0.003207830110201345</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>82.303927</v>
-      </c>
-      <c r="N22">
-        <v>246.911781</v>
-      </c>
-      <c r="O22">
-        <v>0.2103654011331419</v>
-      </c>
-      <c r="P22">
-        <v>0.2358886724356653</v>
-      </c>
-      <c r="Q22">
-        <v>6.516221377728666</v>
-      </c>
-      <c r="R22">
-        <v>58.645992399558</v>
-      </c>
-      <c r="S22">
-        <v>0.0006667915495425361</v>
-      </c>
-      <c r="T22">
-        <v>0.000756690786094549</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.07917266666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.237518</v>
-      </c>
-      <c r="I23">
-        <v>0.003169682590154254</v>
-      </c>
-      <c r="J23">
-        <v>0.003207830110201345</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>19.3348755</v>
-      </c>
-      <c r="N23">
-        <v>38.669751</v>
-      </c>
-      <c r="O23">
-        <v>0.04941913452582716</v>
-      </c>
-      <c r="P23">
-        <v>0.03694338192314825</v>
-      </c>
-      <c r="Q23">
-        <v>1.530793653003</v>
-      </c>
-      <c r="R23">
-        <v>9.184761918017999</v>
-      </c>
-      <c r="S23">
-        <v>0.0001566429703270053</v>
-      </c>
-      <c r="T23">
-        <v>0.000118508092905743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.07917266666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.237518</v>
-      </c>
-      <c r="I24">
-        <v>0.003169682590154254</v>
-      </c>
-      <c r="J24">
-        <v>0.003207830110201345</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>83.25665266666667</v>
-      </c>
-      <c r="N24">
-        <v>249.769958</v>
-      </c>
-      <c r="O24">
-        <v>0.2128005281598046</v>
-      </c>
-      <c r="P24">
-        <v>0.2386192492246122</v>
-      </c>
-      <c r="Q24">
-        <v>6.591651209360443</v>
-      </c>
-      <c r="R24">
-        <v>59.324860884244</v>
-      </c>
-      <c r="S24">
-        <v>0.0006745101292837629</v>
-      </c>
-      <c r="T24">
-        <v>0.00076545001253635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.07917266666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.237518</v>
-      </c>
-      <c r="I25">
-        <v>0.003169682590154254</v>
-      </c>
-      <c r="J25">
-        <v>0.003207830110201345</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>71.272429</v>
-      </c>
-      <c r="N25">
-        <v>213.817287</v>
-      </c>
-      <c r="O25">
-        <v>0.1821693528222338</v>
-      </c>
-      <c r="P25">
-        <v>0.2042716462128862</v>
-      </c>
-      <c r="Q25">
-        <v>5.642828263740666</v>
-      </c>
-      <c r="R25">
-        <v>50.78545437366599</v>
-      </c>
-      <c r="S25">
-        <v>0.0005774190261003024</v>
-      </c>
-      <c r="T25">
-        <v>0.0006552687373820926</v>
+        <v>0.009743614161774763</v>
       </c>
     </row>
   </sheetData>
